--- a/Lab1/lab1.xlsx
+++ b/Lab1/lab1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Рабочий стол\MP_Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Рабочий стол\Материалы\Академическая деятельность\Семестр №5\Параллельное программирование\Лабораторные работы\parallel-programming\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26FC68B9-424B-4EA4-8E75-B9640B7E5DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16942AA2-2FC8-4077-8086-C71DDAF8F3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{02C42F24-E85B-47EB-8A4E-18D1CCDE6578}"/>
   </bookViews>
@@ -807,7 +807,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$3</c15:sqref>
@@ -836,7 +836,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -899,7 +899,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$3:$Q$3</c15:sqref>
@@ -961,7 +961,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-375B-4F5F-9F60-AFF544C1E0DA}"/>
                   </c:ext>
@@ -974,7 +974,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$4</c15:sqref>
@@ -1003,7 +1003,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -1066,7 +1066,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$4:$Q$4</c15:sqref>
@@ -1128,7 +1128,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-375B-4F5F-9F60-AFF544C1E0DA}"/>
                   </c:ext>
@@ -1141,7 +1141,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$5</c15:sqref>
@@ -1170,7 +1170,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -1233,7 +1233,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$5:$Q$5</c15:sqref>
@@ -1295,7 +1295,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-375B-4F5F-9F60-AFF544C1E0DA}"/>
                   </c:ext>
@@ -1308,7 +1308,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$6</c15:sqref>
@@ -1337,7 +1337,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -1400,7 +1400,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$6:$Q$6</c15:sqref>
@@ -1462,7 +1462,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-375B-4F5F-9F60-AFF544C1E0DA}"/>
                   </c:ext>
@@ -1475,7 +1475,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$7</c15:sqref>
@@ -1504,7 +1504,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -1567,7 +1567,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$7:$Q$7</c15:sqref>
@@ -1629,7 +1629,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-375B-4F5F-9F60-AFF544C1E0DA}"/>
                   </c:ext>
@@ -1642,7 +1642,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$8</c15:sqref>
@@ -1673,7 +1673,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -1736,7 +1736,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$8:$Q$8</c15:sqref>
@@ -1798,7 +1798,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-375B-4F5F-9F60-AFF544C1E0DA}"/>
                   </c:ext>
@@ -1811,7 +1811,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$9</c15:sqref>
@@ -1842,7 +1842,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -1905,7 +1905,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$9:$Q$9</c15:sqref>
@@ -1967,7 +1967,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-375B-4F5F-9F60-AFF544C1E0DA}"/>
                   </c:ext>
@@ -1980,7 +1980,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$10</c15:sqref>
@@ -2011,7 +2011,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -2074,7 +2074,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$10:$Q$10</c15:sqref>
@@ -2136,7 +2136,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-375B-4F5F-9F60-AFF544C1E0DA}"/>
                   </c:ext>
@@ -2149,7 +2149,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$11</c15:sqref>
@@ -2180,7 +2180,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -2243,7 +2243,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$11:$Q$11</c15:sqref>
@@ -2305,7 +2305,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-375B-4F5F-9F60-AFF544C1E0DA}"/>
                   </c:ext>
@@ -2318,7 +2318,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$14</c15:sqref>
@@ -2350,7 +2350,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -2413,7 +2413,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$14:$Q$14</c15:sqref>
@@ -2475,7 +2475,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-375B-4F5F-9F60-AFF544C1E0DA}"/>
                   </c:ext>
@@ -2488,7 +2488,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$15</c15:sqref>
@@ -2520,7 +2520,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -2583,7 +2583,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$15:$Q$15</c15:sqref>
@@ -2645,7 +2645,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-375B-4F5F-9F60-AFF544C1E0DA}"/>
                   </c:ext>
@@ -2658,7 +2658,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$16</c15:sqref>
@@ -2690,7 +2690,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -2753,7 +2753,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$16:$Q$16</c15:sqref>
@@ -2815,7 +2815,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-375B-4F5F-9F60-AFF544C1E0DA}"/>
                   </c:ext>
@@ -2828,7 +2828,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$17</c15:sqref>
@@ -2860,7 +2860,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -2923,7 +2923,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$17:$Q$17</c15:sqref>
@@ -2985,7 +2985,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-375B-4F5F-9F60-AFF544C1E0DA}"/>
                   </c:ext>
@@ -3130,7 +3130,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3167,7 +3167,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -3859,7 +3859,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$3</c15:sqref>
@@ -3888,7 +3888,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -3951,7 +3951,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$3:$Q$3</c15:sqref>
@@ -4013,7 +4013,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-7F3B-4FCE-A8DE-69887983E622}"/>
                   </c:ext>
@@ -4026,7 +4026,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$4</c15:sqref>
@@ -4055,7 +4055,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -4118,7 +4118,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$4:$Q$4</c15:sqref>
@@ -4180,7 +4180,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-7F3B-4FCE-A8DE-69887983E622}"/>
                   </c:ext>
@@ -4193,7 +4193,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$5</c15:sqref>
@@ -4222,7 +4222,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -4285,7 +4285,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$5:$Q$5</c15:sqref>
@@ -4347,7 +4347,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-7F3B-4FCE-A8DE-69887983E622}"/>
                   </c:ext>
@@ -4360,7 +4360,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$6</c15:sqref>
@@ -4389,7 +4389,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -4452,7 +4452,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$6:$Q$6</c15:sqref>
@@ -4514,7 +4514,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-7F3B-4FCE-A8DE-69887983E622}"/>
                   </c:ext>
@@ -4527,7 +4527,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$7</c15:sqref>
@@ -4556,7 +4556,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -4619,7 +4619,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$7:$Q$7</c15:sqref>
@@ -4681,7 +4681,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-7F3B-4FCE-A8DE-69887983E622}"/>
                   </c:ext>
@@ -4694,7 +4694,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$8</c15:sqref>
@@ -4725,7 +4725,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -4788,7 +4788,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$8:$Q$8</c15:sqref>
@@ -4850,7 +4850,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-7F3B-4FCE-A8DE-69887983E622}"/>
                   </c:ext>
@@ -4863,7 +4863,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$9</c15:sqref>
@@ -4894,7 +4894,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -4957,7 +4957,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$9:$Q$9</c15:sqref>
@@ -5019,7 +5019,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-7F3B-4FCE-A8DE-69887983E622}"/>
                   </c:ext>
@@ -5032,7 +5032,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$10</c15:sqref>
@@ -5063,7 +5063,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -5126,7 +5126,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$10:$Q$10</c15:sqref>
@@ -5188,7 +5188,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-7F3B-4FCE-A8DE-69887983E622}"/>
                   </c:ext>
@@ -5201,7 +5201,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$11</c15:sqref>
@@ -5232,7 +5232,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -5295,7 +5295,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$11:$Q$11</c15:sqref>
@@ -5357,7 +5357,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-7F3B-4FCE-A8DE-69887983E622}"/>
                   </c:ext>
@@ -5370,7 +5370,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$12</c15:sqref>
@@ -5401,7 +5401,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -5464,7 +5464,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$12:$Q$12</c15:sqref>
@@ -5526,7 +5526,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-7F3B-4FCE-A8DE-69887983E622}"/>
                   </c:ext>
@@ -5539,7 +5539,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$13</c15:sqref>
@@ -5570,7 +5570,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -5633,7 +5633,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$13:$Q$13</c15:sqref>
@@ -5695,7 +5695,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-7F3B-4FCE-A8DE-69887983E622}"/>
                   </c:ext>
@@ -5708,7 +5708,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$16</c15:sqref>
@@ -5740,7 +5740,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -5803,7 +5803,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$16:$Q$16</c15:sqref>
@@ -5865,7 +5865,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-7F3B-4FCE-A8DE-69887983E622}"/>
                   </c:ext>
@@ -5878,7 +5878,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$17</c15:sqref>
@@ -5910,7 +5910,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -5973,7 +5973,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$17:$Q$17</c15:sqref>
@@ -6035,7 +6035,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-7F3B-4FCE-A8DE-69887983E622}"/>
                   </c:ext>
@@ -6180,7 +6180,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -6212,7 +6212,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -6904,7 +6904,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$3</c15:sqref>
@@ -6933,7 +6933,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -6996,7 +6996,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$3:$Q$3</c15:sqref>
@@ -7058,7 +7058,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-DD32-4235-B264-80B57B02C736}"/>
                   </c:ext>
@@ -7071,7 +7071,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$4</c15:sqref>
@@ -7100,7 +7100,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -7163,7 +7163,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$4:$Q$4</c15:sqref>
@@ -7225,7 +7225,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-DD32-4235-B264-80B57B02C736}"/>
                   </c:ext>
@@ -7238,7 +7238,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$5</c15:sqref>
@@ -7267,7 +7267,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -7330,7 +7330,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$5:$Q$5</c15:sqref>
@@ -7392,7 +7392,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-DD32-4235-B264-80B57B02C736}"/>
                   </c:ext>
@@ -7405,7 +7405,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$6</c15:sqref>
@@ -7434,7 +7434,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -7497,7 +7497,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$6:$Q$6</c15:sqref>
@@ -7559,7 +7559,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-DD32-4235-B264-80B57B02C736}"/>
                   </c:ext>
@@ -7572,7 +7572,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$7</c15:sqref>
@@ -7601,7 +7601,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -7664,7 +7664,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$7:$Q$7</c15:sqref>
@@ -7726,7 +7726,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-DD32-4235-B264-80B57B02C736}"/>
                   </c:ext>
@@ -7739,7 +7739,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$8</c15:sqref>
@@ -7770,7 +7770,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -7833,7 +7833,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$8:$Q$8</c15:sqref>
@@ -7895,7 +7895,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-DD32-4235-B264-80B57B02C736}"/>
                   </c:ext>
@@ -7908,7 +7908,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$9</c15:sqref>
@@ -7939,7 +7939,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -8002,7 +8002,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$9:$Q$9</c15:sqref>
@@ -8064,7 +8064,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-DD32-4235-B264-80B57B02C736}"/>
                   </c:ext>
@@ -8077,7 +8077,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$10</c15:sqref>
@@ -8108,7 +8108,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -8171,7 +8171,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$10:$Q$10</c15:sqref>
@@ -8233,7 +8233,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-DD32-4235-B264-80B57B02C736}"/>
                   </c:ext>
@@ -8246,7 +8246,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$11</c15:sqref>
@@ -8277,7 +8277,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -8340,7 +8340,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$11:$Q$11</c15:sqref>
@@ -8402,7 +8402,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-DD32-4235-B264-80B57B02C736}"/>
                   </c:ext>
@@ -8415,7 +8415,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$12</c15:sqref>
@@ -8446,7 +8446,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -8509,7 +8509,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$12:$Q$12</c15:sqref>
@@ -8571,7 +8571,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-DD32-4235-B264-80B57B02C736}"/>
                   </c:ext>
@@ -8584,7 +8584,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$13</c15:sqref>
@@ -8615,7 +8615,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -8678,7 +8678,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$13:$Q$13</c15:sqref>
@@ -8740,7 +8740,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-DD32-4235-B264-80B57B02C736}"/>
                   </c:ext>
@@ -8753,7 +8753,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$14</c15:sqref>
@@ -8785,7 +8785,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -8848,7 +8848,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$14:$Q$14</c15:sqref>
@@ -8910,7 +8910,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-DD32-4235-B264-80B57B02C736}"/>
                   </c:ext>
@@ -8923,7 +8923,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$A$15</c15:sqref>
@@ -8955,7 +8955,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$1:$Q$1</c15:sqref>
@@ -9018,7 +9018,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Лист1!$B$15:$Q$15</c15:sqref>
@@ -9080,7 +9080,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-DD32-4235-B264-80B57B02C736}"/>
                   </c:ext>
@@ -9225,7 +9225,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -9258,7 +9258,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -11469,7 +11469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A2EA2E-5625-4C20-9451-7BDAF5A01F54}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -12061,67 +12061,67 @@
         <v>1</v>
       </c>
       <c r="B12" s="4">
-        <f>AVERAGE(B2:B11)</f>
+        <f t="shared" ref="B12:Q12" si="0">AVERAGE(B2:B11)</f>
         <v>1.7069380000000002E-2</v>
       </c>
       <c r="C12" s="4">
-        <f>AVERAGE(C2:C11)</f>
+        <f t="shared" si="0"/>
         <v>9.1504300000000011E-3</v>
       </c>
       <c r="D12" s="4">
-        <f>AVERAGE(D2:D11)</f>
+        <f t="shared" si="0"/>
         <v>7.2576800000000007E-3</v>
       </c>
       <c r="E12" s="4">
-        <f>AVERAGE(E2:E11)</f>
+        <f t="shared" si="0"/>
         <v>4.7170699999999994E-3</v>
       </c>
       <c r="F12" s="4">
-        <f>AVERAGE(F2:F11)</f>
+        <f t="shared" si="0"/>
         <v>3.9012599999999993E-3</v>
       </c>
       <c r="G12" s="4">
-        <f>AVERAGE(G2:G11)</f>
+        <f t="shared" si="0"/>
         <v>3.43225E-3</v>
       </c>
       <c r="H12" s="4">
-        <f>AVERAGE(H2:H11)</f>
+        <f t="shared" si="0"/>
         <v>3.3308300000000008E-3</v>
       </c>
       <c r="I12" s="4">
-        <f>AVERAGE(I2:I11)</f>
+        <f t="shared" si="0"/>
         <v>3.1261700000000002E-3</v>
       </c>
       <c r="J12" s="4">
-        <f>AVERAGE(J2:J11)</f>
+        <f t="shared" si="0"/>
         <v>2.8182000000000003E-3</v>
       </c>
       <c r="K12" s="4">
-        <f>AVERAGE(K2:K11)</f>
+        <f t="shared" si="0"/>
         <v>2.6179200000000001E-3</v>
       </c>
       <c r="L12" s="4">
-        <f>AVERAGE(L2:L11)</f>
+        <f t="shared" si="0"/>
         <v>2.29853E-3</v>
       </c>
       <c r="M12" s="4">
-        <f>AVERAGE(M2:M11)</f>
+        <f t="shared" si="0"/>
         <v>2.1336000000000003E-3</v>
       </c>
       <c r="N12" s="4">
-        <f>AVERAGE(N2:N11)</f>
+        <f t="shared" si="0"/>
         <v>1.7036E-3</v>
       </c>
       <c r="O12" s="4">
-        <f>AVERAGE(O2:O11)</f>
+        <f t="shared" si="0"/>
         <v>1.5465699999999999E-3</v>
       </c>
       <c r="P12" s="4">
-        <f>AVERAGE(P2:P11)</f>
+        <f t="shared" si="0"/>
         <v>1.5376000000000001E-3</v>
       </c>
       <c r="Q12" s="4">
-        <f>AVERAGE(Q2:Q11)</f>
+        <f t="shared" si="0"/>
         <v>1.5074299999999999E-3</v>
       </c>
     </row>
@@ -12341,63 +12341,63 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16:Q16" si="0">C14/C1</f>
+        <f t="shared" ref="C16:Q16" si="1">C14/C1</f>
         <v>0.93270917323011049</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78396861439651977</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90466009620378773</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87507010555564124</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8288722169616628</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73209466023269176</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68251966463755975</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.67298196642458941</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65202068817992909</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.67511053507320695</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66668932008498938</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.77073798472014032</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78835191977823749</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.74008758237946592</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70771860053203151</v>
       </c>
     </row>
@@ -12410,63 +12410,63 @@
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C17:Q17" si="1">C15/C1</f>
+        <f t="shared" ref="C17:Q17" si="2">C15/C1</f>
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
